--- a/ADaM coding-2/ADaM-like/ADMH.xlsx
+++ b/ADaM coding-2/ADaM-like/ADMH.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">XXXX0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medical History</t>
   </si>
   <si>
@@ -137,16 +134,10 @@
     <t xml:space="preserve">01.01.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">MENOPAUSE</t>
   </si>
   <si>
     <t xml:space="preserve">SOCIAL CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">CERVICAL CANCER IN REMISSION SINCE 2000</t>
@@ -559,42 +550,42 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -602,50 +593,50 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -653,50 +644,50 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -704,46 +695,46 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -751,46 +742,46 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -798,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -806,11 +797,11 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -818,20 +809,20 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
